--- a/Football.xlsx
+++ b/Football.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XiaHanlu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA6CDBE-EBDF-474D-8EFB-4ED9E2C4DF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F460C13-8BD8-40C2-AAE5-82F0C1C9FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-740" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,11 +22,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Analysis!$A$1:$G$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CFBWeek8!$A$1:$AC$50</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">CFBWeek8!$Z$2:$Z$50</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">CFBWeek8!$I$2:$I$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">CFBWeek8!$L$2:$L$50</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">CFBWeek8!$AC$2:$AC$50</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">CFBWeek8!$AC$2:$AC$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">CFBWeek8!$AC$2:$AC$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">CFBWeek8!$L$2:$L$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">CFBWeek8!$Z$2:$Z$50</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">CFBWeek8!$I$2:$I$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="335">
   <si>
     <t>赔率</t>
   </si>
@@ -1036,6 +1035,24 @@
   </si>
   <si>
     <t>std.s in Result</t>
+  </si>
+  <si>
+    <t>Payout</t>
+  </si>
+  <si>
+    <t>Correct%</t>
+  </si>
+  <si>
+    <t>P`vol</t>
+  </si>
+  <si>
+    <t>Pvol</t>
+  </si>
+  <si>
+    <t>1-P</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1233,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1279,7 +1296,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1342,7 +1359,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1405,7 +1422,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3659,16 +3676,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198581</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>52243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>499341</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:rowOff>128443</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3704,8 +3721,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6400800" y="415925"/>
-              <a:ext cx="4562475" cy="2743200"/>
+              <a:off x="7275945" y="433243"/>
+              <a:ext cx="4584123" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3737,16 +3754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314902</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>8947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3753</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>79375</xdr:rowOff>
+      <xdr:rowOff>85147</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -3782,8 +3799,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6375400" y="4003675"/>
-              <a:ext cx="4565650" cy="2743200"/>
+              <a:off x="7392266" y="4009447"/>
+              <a:ext cx="4584123" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3860,8 +3877,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11500556" y="352778"/>
-              <a:ext cx="4575175" cy="2743200"/>
+              <a:off x="11506200" y="352778"/>
+              <a:ext cx="4594931" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3938,8 +3955,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11811000" y="3887611"/>
-              <a:ext cx="4575175" cy="2743200"/>
+              <a:off x="11816644" y="3887611"/>
+              <a:ext cx="4597753" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4235,10 +4252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9672388C-4B99-4974-B6EE-C1C02F3F296F}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:F47"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4268,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="17" t="s">
         <v>216</v>
       </c>
@@ -4261,11 +4278,11 @@
       <c r="D1" t="s">
         <v>227</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>319</v>
       </c>
@@ -4282,7 +4299,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -4295,7 +4312,7 @@
         <v>14.622448979591837</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -4308,7 +4325,7 @@
         <v>11.424813370213874</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>228</v>
       </c>
@@ -4321,7 +4338,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>229</v>
       </c>
@@ -4334,7 +4351,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>230</v>
       </c>
@@ -4347,7 +4364,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>316</v>
       </c>
@@ -4360,7 +4377,7 @@
         <v>0.48979591836734693</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>321</v>
       </c>
@@ -4373,7 +4390,7 @@
         <v>8.742857142857142</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>320</v>
       </c>
@@ -4386,7 +4403,7 @@
         <v>4.7915660986459452</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>326</v>
       </c>
@@ -4399,7 +4416,7 @@
         <v>-9.2755102040816322</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>327</v>
       </c>
@@ -4412,7 +4429,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>328</v>
       </c>
@@ -4426,36 +4443,187 @@
       </c>
       <c r="E13" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E15" s="4"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="4"/>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4"/>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>331</v>
+      </c>
+      <c r="F24" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.5</v>
+      </c>
+      <c r="C25">
+        <f>1-B25</f>
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.66</v>
+      </c>
+      <c r="E25">
+        <f>1-D25</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F25">
+        <f>B25*D25</f>
+        <v>0.33</v>
+      </c>
+      <c r="G25">
+        <f>F25*1.4-(1-F25)*1</f>
+        <v>-0.20799999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f>B25+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C26">
+        <f>1-B26</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.66</v>
+      </c>
+      <c r="E26">
+        <f>1-D26</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F26">
+        <f>B26*D26</f>
+        <v>0.36300000000000004</v>
+      </c>
+      <c r="G26">
+        <f>F26*1.4-(1-F26)*1</f>
+        <v>-0.12880000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f>B26+0.05</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C27">
+        <f>1-B27</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="D27">
+        <v>0.66</v>
+      </c>
+      <c r="E27">
+        <f>1-D27</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F27">
+        <f>B27*D27</f>
+        <v>0.39600000000000007</v>
+      </c>
+      <c r="G27">
+        <f>F27*1.4-(1-F27)*1</f>
+        <v>-4.9599999999999755E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B27+0.05</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="C28">
+        <f>1-B28</f>
+        <v>0.34999999999999987</v>
+      </c>
+      <c r="D28">
+        <v>0.66</v>
+      </c>
+      <c r="E28">
+        <f>1-D28</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F28">
+        <f>B28*D28</f>
+        <v>0.4290000000000001</v>
+      </c>
+      <c r="G28">
+        <f>F28*1.4-(1-F28)*1</f>
+        <v>2.9600000000000182E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f>B28+0.05</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="C29">
+        <f>1-B29</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="D29">
+        <v>0.66</v>
+      </c>
+      <c r="E29">
+        <f>1-D29</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F29">
+        <f>B29*D29</f>
+        <v>0.46200000000000013</v>
+      </c>
+      <c r="G29">
+        <f>F29*1.4-(1-F29)*1</f>
+        <v>0.10880000000000034</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f>B29+0.05</f>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="C30">
+        <f>1-B30</f>
+        <v>0.24999999999999978</v>
+      </c>
+      <c r="D30">
+        <v>0.66</v>
+      </c>
+      <c r="E30">
+        <f>1-D30</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="F30">
+        <f>B30*D30</f>
+        <v>0.49500000000000016</v>
+      </c>
+      <c r="G30">
+        <f>F30*1.4-(1-F30)*1</f>
+        <v>0.18800000000000028</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E31" s="4"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
@@ -6281,7 +6449,7 @@
         <v>9.5</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD2:AD33" si="13">L3-N3</f>
+        <f t="shared" ref="AD3:AD33" si="13">L3-N3</f>
         <v>13</v>
       </c>
       <c r="AE3">
